--- a/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\maui-samplebrowser\SampleBrowser.Maui\Resources\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohanChandran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12256A0-0414-44B2-BBBB-341E98A64103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E0C7F-F3AE-41DB-A48A-677AB58C3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Control" sheetId="19" r:id="rId1"/>
@@ -579,11 +579,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="38"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="36" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="36" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="2" name="contact_sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="4" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1730,7 @@
         <xdr:cNvPr id="5" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1788,7 @@
         <xdr:cNvPr id="6" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="7" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1904,7 @@
         <xdr:cNvPr id="8" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1962,7 @@
         <xdr:cNvPr id="9" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2025,7 @@
                   <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
                   <a14:compatExt spid="_x0000_s16386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
                   <a14:compatExt spid="_x0000_s16387"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2264,7 +2264,7 @@
                   <a14:compatExt spid="_x0000_s16388"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2350,7 +2350,7 @@
                   <a14:compatExt spid="_x0000_s16389"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2436,7 +2436,7 @@
                   <a14:compatExt spid="_x0000_s16390"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2522,7 +2522,7 @@
                   <a14:compatExt spid="_x0000_s16391"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2608,7 +2608,7 @@
                   <a14:compatExt spid="_x0000_s16392"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2694,7 +2694,7 @@
                   <a14:compatExt spid="_x0000_s16393"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2780,7 +2780,7 @@
                   <a14:compatExt spid="_x0000_s16394"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2866,7 +2866,7 @@
                   <a14:compatExt spid="_x0000_s16395"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2952,7 +2952,7 @@
                   <a14:compatExt spid="_x0000_s16396"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3038,7 +3038,7 @@
                   <a14:compatExt spid="_x0000_s16397"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3124,7 +3124,7 @@
                   <a14:compatExt spid="_x0000_s16398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3174,7 +3174,7 @@
                   <a14:compatExt spid="_x0000_s16399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
                   <a14:compatExt spid="_x0000_s16400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3346,7 +3346,7 @@
                   <a14:compatExt spid="_x0000_s16401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3434,7 +3434,7 @@
             <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3499,23 +3499,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37449</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>586132</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30735</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="RoundedRectangle 1">
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B068342F-6043-493E-A29B-66806272F3F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,17 +3523,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2526649" y="1006475"/>
-          <a:ext cx="1170983" cy="542925"/>
+          <a:off x="1856014" y="2021967"/>
+          <a:ext cx="1832321" cy="552130"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3366FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="EC1C24"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3558,23 +3568,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="1">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>R</a:t>
+            <a:t>E</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>equirement</a:t>
+            <a:t>xecution</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3584,22 +3595,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>28388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>29562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="DownArrow 2">
+        <xdr:cNvPr id="12" name="Arrow: Down 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DDFD79-2213-46A6-9485-6440077728DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,8 +3618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="1554162"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2466788" y="2574097"/>
+          <a:ext cx="610774" cy="368087"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3618,7 +3629,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3645,23 +3656,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="RoundedRectangle 3">
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42331583-86CB-4FEC-BE48-7F409AC1043E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,17 +3680,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="1922462"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1856014" y="2942184"/>
+          <a:ext cx="1832321" cy="552130"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF9900"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="F8BC19"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3704,23 +3725,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="sng">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="800000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>D</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="800000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>esign</a:t>
+            <a:t>esting</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3730,22 +3752,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>28388</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>29562</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="DownArrow 4">
+        <xdr:cNvPr id="14" name="Arrow: Down 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DCB3D6-CEDB-41D6-8FB0-3717329B75BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,8 +3775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="2474912"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2466788" y="3494314"/>
+          <a:ext cx="610774" cy="368086"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3764,7 +3786,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3791,23 +3813,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="RoundedRectangle 5">
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60C3B59-D3BB-4E98-80CC-1B6C205AFF2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,17 +3837,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="2843212"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1856014" y="3862400"/>
+          <a:ext cx="1832321" cy="552130"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0000FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="5DC1D0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="5786B9"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3850,23 +3882,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>E</a:t>
+            <a:t>R</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>xecution</a:t>
+            <a:t>elease</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3875,23 +3908,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="DownArrow 6">
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73048BBF-AA4A-4511-B2B2-FDFAC3500DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,8 +3932,103 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="3395662"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="1828800" y="184150"/>
+          <a:ext cx="1829333" cy="549514"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:srgbClr val="F5931E"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>equirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Arrow: Down 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BAB69A-B358-4C12-84CF-2C51DC151500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2436586" y="733664"/>
+          <a:ext cx="610774" cy="368087"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3910,7 +4038,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -3937,23 +4065,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="RoundedRectangle 7">
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37662E79-5E98-4292-9000-BC9AA6E2138E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,17 +4089,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2535160" y="3763962"/>
-          <a:ext cx="1153393" cy="552450"/>
+          <a:off x="1828800" y="1101751"/>
+          <a:ext cx="1829333" cy="552130"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="008000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="99AF3C"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3996,23 +4134,24 @@
         <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Segoe UI"/>
             </a:rPr>
-            <a:t>esting</a:t>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI"/>
+            </a:rPr>
+            <a:t>esign</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4021,23 +4160,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>358034</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="DownArrow 8">
+        <xdr:cNvPr id="19" name="Arrow: Down 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5102C3F1-542F-4048-99E9-B6DF912A2F86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,8 +4184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847234" y="4316412"/>
-          <a:ext cx="622300" cy="368300"/>
+          <a:off x="2436586" y="1653881"/>
+          <a:ext cx="610774" cy="368086"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4056,7 +4195,7 @@
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -4078,90 +4217,6 @@
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577053</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="RoundedRectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2535160" y="4684712"/>
-          <a:ext cx="1153393" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CC99FF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>R</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>elease</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4552,7 +4607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DC95B-4187-48F4-997A-3461A4B8863A}">
   <dimension ref="A4:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -4651,12 +4706,12 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
@@ -5085,10 +5140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -5163,7 +5218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DA5B8-B34B-4F6E-9C3B-D662ED12390B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>

--- a/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExcelTopdfwithChart.xlsx
+++ b/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExcelTopdfwithChart.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample browser soruces for change\xlsio-MaUI-samplebrowser\Maui\SB\SampleBrowser.Maui.XlsIO\Resources\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hotfix\Alt\88092-Change-SP-relese\Maui\SB\SampleBrowser.Maui.XlsIO\Resources\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D6197-A80B-4153-90DC-1215E7934B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4179E-2CFC-446D-88FA-D04150352E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Control" sheetId="19" r:id="rId1"/>
-    <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId2"/>
-    <sheet name="Autoshapes" sheetId="10" r:id="rId3"/>
-    <sheet name="Input" sheetId="20" state="hidden" r:id="rId4"/>
+    <sheet name="Data" sheetId="22" r:id="rId2"/>
+    <sheet name="Excel 2016 Chart" sheetId="9" r:id="rId3"/>
+    <sheet name="Autoshapes" sheetId="10" r:id="rId4"/>
+    <sheet name="Input" sheetId="20" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_1FLOW" localSheetId="0">#REF!</definedName>
-    <definedName name="_1FLOW" localSheetId="3">#REF!</definedName>
+    <definedName name="_1FLOW" localSheetId="4">#REF!</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_xlchart.v2.0" hidden="1">'Excel 2016 Chart'!$A$3:$A$8</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">'Excel 2016 Chart'!$B$2</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">'Excel 2016 Chart'!$B$3:$B$8</definedName>
     <definedName name="Data.Dump" localSheetId="0" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
-    <definedName name="Data.Dump" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
     <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
-    <definedName name="HTML_Control" localSheetId="3" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="4" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -47,13 +48,13 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="Macro1" localSheetId="0">'Form Control'!Macro1</definedName>
-    <definedName name="Macro1" localSheetId="3">Input!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="4">Input!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
     <definedName name="Macro2" localSheetId="0">'Form Control'!Macro2</definedName>
-    <definedName name="Macro2" localSheetId="3">Input!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="4">Input!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
     <definedName name="Ownership" localSheetId="0" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
-    <definedName name="Ownership" localSheetId="3" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Form Control'!$A$1:$G$44</definedName>
   </definedNames>
@@ -71,8 +72,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johnson Manohar</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{20CBBE78-B9E8-478B-B11F-8E5FF699A719}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This Total column comment will be printed at the end of sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Sales PipleLine</t>
   </si>
@@ -172,12 +207,87 @@
   <si>
     <t>Net Banking</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Pen Set</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Kivell</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Pen &amp; Pencil</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -187,11 +297,19 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.00%_);[Red]\(0.00%\)"/>
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -320,8 +438,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="2" tint="-0.749961851863155"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +547,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -501,97 +684,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="2">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="3">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="3">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="3"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4"/>
-    <xf numFmtId="37" fontId="5" fillId="7" borderId="2" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="4"/>
+    <xf numFmtId="37" fontId="6" fillId="7" borderId="2" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="5" applyFill="0">
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="7"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="9" applyBorder="0">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="9" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="13" fillId="9" borderId="10"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="9" borderId="10"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="36"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="38"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="36" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="36"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="38"/>
+    <xf numFmtId="170" fontId="5" fillId="13" borderId="12" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="40" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="12" borderId="12" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="40" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="13" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="12" borderId="13" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="11" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="11" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="11" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="11" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="36" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="50">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Amounts" xfId="48" xr:uid="{07C97FD0-E5E1-4239-8B00-D5C6CF3E7512}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Body text" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Comma0" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Currency" xfId="35" builtinId="4"/>
+    <cellStyle name="Currency_TapePivot" xfId="41" xr:uid="{3D484E6C-4198-4976-992B-5293283E06A1}"/>
     <cellStyle name="Currency0" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="DarkBlueOutline" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="DarkBlueOutlineYellow" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -606,6 +921,8 @@
     <cellStyle name="Header1" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Header2" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Header3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Heading 3 2" xfId="43" xr:uid="{EFF28FD1-F9CA-4936-A6E2-6A6E455DE431}"/>
+    <cellStyle name="Heading 4 2" xfId="44" xr:uid="{B96D0E16-E84F-4BDF-ABA6-EFF138CE0B27}"/>
     <cellStyle name="Hyperlink 2" xfId="37" xr:uid="{30756F38-4419-40BD-9E92-4C0D13E231F1}"/>
     <cellStyle name="Level 2 Total" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Major Total" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
@@ -615,19 +932,26 @@
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="36" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
     <cellStyle name="Normal 5" xfId="38" xr:uid="{71161BCA-3F7B-4631-80A8-8E1942630013}"/>
+    <cellStyle name="Normal 5 2" xfId="45" xr:uid="{BFD1C1F9-259F-4DB4-84EB-CF354CAD30B1}"/>
+    <cellStyle name="Normal_PivotSizeTest" xfId="39" xr:uid="{F95D3C6D-87F1-42F4-AF9C-E0C17FDED139}"/>
+    <cellStyle name="Normal_Sheet1" xfId="42" xr:uid="{01F07A12-7EF6-4A1A-80ED-866381A20811}"/>
+    <cellStyle name="Normal_TapePivot" xfId="40" xr:uid="{F79B9EB0-48D1-4025-9500-AC5EFA8BBEA9}"/>
     <cellStyle name="NormalRed" xfId="23" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Percent.0" xfId="24" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Percent.00" xfId="25" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Product Title" xfId="26" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="RED POSTED" xfId="27" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Standard_Anpassen der Amortisation" xfId="28" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Table Details" xfId="47" xr:uid="{A051042E-31C4-4F75-8B82-72906FC01FEF}"/>
     <cellStyle name="Text_simple" xfId="29" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="TmsRmn10BlueItalic" xfId="30" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="TmsRmn10Bold" xfId="31" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Variance" xfId="49" xr:uid="{EA162643-491A-4B69-B74D-F18F77E17402}"/>
     <cellStyle name="Währung [0]_Compiling Utility Macros" xfId="32" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Währung_Compiling Utility Macros" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Year" xfId="46" xr:uid="{F0D078CE-F746-4B1F-A108-C73FC71E8B04}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -646,6 +970,353 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2032,7 +2703,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2099,7 +2770,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2150,7 +2821,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2185,7 +2856,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2236,7 +2907,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2271,7 +2942,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2322,7 +2993,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2357,7 +3028,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2408,7 +3079,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2443,7 +3114,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2494,7 +3165,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2529,9 +3200,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2580,7 +3251,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2615,7 +3286,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2666,7 +3337,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2701,7 +3372,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2752,7 +3423,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2787,7 +3458,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2838,7 +3509,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2873,7 +3544,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2924,7 +3595,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2959,7 +3630,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3010,7 +3681,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3041,13 +3712,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3096,7 +3767,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3181,7 +3852,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -3232,7 +3903,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3267,9 +3938,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>622300</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3318,7 +3989,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3353,7 +4024,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>374650</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -3404,7 +4075,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3433,6 +4104,61 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31750" y="6350"/>
+          <a:ext cx="1987550" cy="691667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3453,7 +4179,7 @@
             <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3480,8 +4206,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="68037" y="1675719"/>
-              <a:ext cx="4569279" cy="2743200"/>
+              <a:off x="68037" y="1634444"/>
+              <a:ext cx="4794704" cy="2689225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3514,7 +4240,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3534,7 +4260,7 @@
         <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +4355,7 @@
         <xdr:cNvPr id="12" name="Arrow: Down 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,7 +4417,7 @@
         <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3786,7 +4512,7 @@
         <xdr:cNvPr id="14" name="Arrow: Down 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3848,7 +4574,7 @@
         <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +4669,7 @@
         <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4764,7 @@
         <xdr:cNvPr id="17" name="Arrow: Down 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,7 +4826,7 @@
         <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,7 +4921,7 @@
         <xdr:cNvPr id="19" name="Arrow: Down 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,6 +4969,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7440771-EDEA-4581-ABD4-483AF588B8A5}" name="Table1" displayName="Table1" ref="A6:H35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" headerRowCellStyle="Currency_TapePivot">
+  <autoFilter ref="A6:H35" xr:uid="{F7440771-EDEA-4581-ABD4-483AF588B8A5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7547F862-75B5-46BD-BA50-D6CD6B07B003}" name="Date" dataDxfId="8" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="2" xr3:uid="{D67DA7CD-9AAF-49E1-8516-54254CF1588B}" name="Weekday" dataDxfId="7" dataCellStyle="Normal_PivotSizeTest">
+      <calculatedColumnFormula>TEXT(A7,"dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AD66883C-4B06-4862-846A-1E6FCFBAF58B}" name="Region" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{E77DE768-7CD4-478A-BD9F-49756402E51E}" name="Employee" dataDxfId="5" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="5" xr3:uid="{E02D8C42-76F8-41C2-9FDB-7C3FD71D7B6E}" name="Item" dataDxfId="4" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="6" xr3:uid="{82B5D936-3079-4F2D-B980-EA3E77DCE7C7}" name="Units" dataDxfId="3" dataCellStyle="Normal_PivotSizeTest"/>
+    <tableColumn id="7" xr3:uid="{B15C72D3-A220-4AA9-B3DE-7DEE72DE0042}" name="Unit Cost" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{BF302CC4-2AD3-4CC4-BFF6-B378E83533EC}" name="Total" dataDxfId="1" dataCellStyle="Normal_PivotSizeTest">
+      <calculatedColumnFormula>G7*F7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A2:B8" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stage"/>
@@ -4630,24 +5377,24 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="3"/>
-    <col min="7" max="7" width="8.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="30.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="12.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="8.7265625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -4655,17 +5402,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4673,12 +5420,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -4686,12 +5433,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -4699,50 +5446,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -4775,7 +5522,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4797,7 +5544,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4819,7 +5566,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4841,7 +5588,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4863,7 +5610,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4885,7 +5632,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4907,9 +5654,9 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:colOff>508000</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4929,7 +5676,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4951,7 +5698,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4973,7 +5720,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4995,7 +5742,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5017,7 +5764,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5035,13 +5782,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5083,7 +5830,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -5105,9 +5852,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:colOff>622300</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5127,7 +5874,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>371475</xdr:colOff>
+                    <xdr:colOff>374650</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -5143,28 +5890,897 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD051DF4-66F1-4E1E-8053-6F5F17082609}">
+  <dimension ref="A6:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>39431</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B35" si="0">TEXT(A7,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>700</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" ref="H7:H35" si="1">G7*F7</f>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>39434</v>
+      </c>
+      <c r="B8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15">
+        <v>85</v>
+      </c>
+      <c r="G8" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="1"/>
+        <v>1699.1499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>39437</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10">
+        <v>62</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H9" s="17">
+        <f>G9*F9</f>
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>39440</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="15">
+        <v>58</v>
+      </c>
+      <c r="G10" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>1159.4199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>39443</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
+        <v>49.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>39446</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15">
+        <v>19</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.99</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
+        <v>56.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>39449</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>39452</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="15">
+        <v>10</v>
+      </c>
+      <c r="G14" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>49.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>39455</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
+        <v>39</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="1"/>
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>39458</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>8.99</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>39461</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="10">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="1"/>
+        <v>399.20000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>39464</v>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15">
+        <v>51</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1.99</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>101.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>39467</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="1"/>
+        <v>199.89999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>39470</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="15">
+        <v>15</v>
+      </c>
+      <c r="G20" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>74.850000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>39473</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="10">
+        <v>31</v>
+      </c>
+      <c r="G21" s="11">
+        <v>125</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="1"/>
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>39476</v>
+      </c>
+      <c r="B22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="15">
+        <v>46</v>
+      </c>
+      <c r="G22" s="16">
+        <v>15.99</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="1"/>
+        <v>735.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>39479</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="10">
+        <v>61</v>
+      </c>
+      <c r="G23" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="1"/>
+        <v>548.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>39482</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="15">
+        <v>90</v>
+      </c>
+      <c r="G24" s="16">
+        <v>8.99</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="1"/>
+        <v>809.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>39485</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43</v>
+      </c>
+      <c r="G25" s="11">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="1"/>
+        <v>859.56999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>39488</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="15">
+        <v>32</v>
+      </c>
+      <c r="G26" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>159.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>39491</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="10">
+        <v>37</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="1"/>
+        <v>47.730000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>39494</v>
+      </c>
+      <c r="B28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="15">
+        <v>26</v>
+      </c>
+      <c r="G28" s="16">
+        <v>15.99</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="1"/>
+        <v>415.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>39497</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="10">
+        <v>79</v>
+      </c>
+      <c r="G29" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="1"/>
+        <v>710.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>39500</v>
+      </c>
+      <c r="B30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="15">
+        <v>72</v>
+      </c>
+      <c r="G30" s="16">
+        <v>15</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>39503</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="10">
+        <v>27</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="1"/>
+        <v>134.73000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>39506</v>
+      </c>
+      <c r="B32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="15">
+        <v>5</v>
+      </c>
+      <c r="G32" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="1"/>
+        <v>99.949999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>39509</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="10">
+        <v>59</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="1"/>
+        <v>294.41000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>39512</v>
+      </c>
+      <c r="B34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="15">
+        <v>41</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1.99</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="1"/>
+        <v>81.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>39515</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="10">
+        <v>85</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="1"/>
+        <v>424.15000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +6788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5180,7 +6796,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5188,7 +6804,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5196,7 +6812,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5204,7 +6820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5212,7 +6828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5233,7 +6849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DA5B8-B34B-4F6E-9C3B-D662ED12390B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5241,9 +6857,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,7 +6869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62839F55-845F-495F-898B-DDC0F13502FA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5261,17 +6877,17 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
